--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Wnt5a-Fzd5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Wnt5a-Fzd5.xlsx
@@ -534,16 +534,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.06862399999999999</v>
+        <v>0.02354566666666667</v>
       </c>
       <c r="H2">
-        <v>0.205872</v>
+        <v>0.07063700000000001</v>
       </c>
       <c r="I2">
-        <v>0.008161958451368766</v>
+        <v>0.002815555392485919</v>
       </c>
       <c r="J2">
-        <v>0.008161958451368766</v>
+        <v>0.002815555392485918</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.920975666666667</v>
+        <v>3.281109666666667</v>
       </c>
       <c r="N2">
-        <v>29.762927</v>
+        <v>9.843329000000001</v>
       </c>
       <c r="O2">
-        <v>0.5379109985456686</v>
+        <v>0.2779739143628921</v>
       </c>
       <c r="P2">
-        <v>0.5379109985456686</v>
+        <v>0.2779739143628921</v>
       </c>
       <c r="Q2">
-        <v>0.6808170341493333</v>
+        <v>0.07725591450811113</v>
       </c>
       <c r="R2">
-        <v>6.127353307343999</v>
+        <v>0.6953032305730001</v>
       </c>
       <c r="S2">
-        <v>0.004390407220664032</v>
+        <v>0.0007826509535548598</v>
       </c>
       <c r="T2">
-        <v>0.004390407220664032</v>
+        <v>0.0007826509535548597</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.06862399999999999</v>
+        <v>0.02354566666666667</v>
       </c>
       <c r="H3">
-        <v>0.205872</v>
+        <v>0.07063700000000001</v>
       </c>
       <c r="I3">
-        <v>0.008161958451368766</v>
+        <v>0.002815555392485919</v>
       </c>
       <c r="J3">
-        <v>0.008161958451368766</v>
+        <v>0.002815555392485918</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.153936333333333</v>
+        <v>6.153936333333334</v>
       </c>
       <c r="N3">
         <v>18.461809</v>
       </c>
       <c r="O3">
-        <v>0.3336637594195426</v>
+        <v>0.5213583040808726</v>
       </c>
       <c r="P3">
-        <v>0.3336637594195426</v>
+        <v>0.5213583040808725</v>
       </c>
       <c r="Q3">
-        <v>0.4223077269386666</v>
+        <v>0.1448985335925556</v>
       </c>
       <c r="R3">
-        <v>3.800769542447999</v>
+        <v>1.304086802333</v>
       </c>
       <c r="S3">
-        <v>0.002723349741109811</v>
+        <v>0.001467913184472214</v>
       </c>
       <c r="T3">
-        <v>0.002723349741109811</v>
+        <v>0.001467913184472214</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.06862399999999999</v>
+        <v>0.02354566666666667</v>
       </c>
       <c r="H4">
-        <v>0.205872</v>
+        <v>0.07063700000000001</v>
       </c>
       <c r="I4">
-        <v>0.008161958451368766</v>
+        <v>0.002815555392485919</v>
       </c>
       <c r="J4">
-        <v>0.008161958451368766</v>
+        <v>0.002815555392485918</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>7.105843</v>
       </c>
       <c r="O4">
-        <v>0.1284252420347888</v>
+        <v>0.2006677815562353</v>
       </c>
       <c r="P4">
-        <v>0.1284252420347888</v>
+        <v>0.2006677815562353</v>
       </c>
       <c r="Q4">
-        <v>0.1625437900106667</v>
+        <v>0.05577060355455556</v>
       </c>
       <c r="R4">
-        <v>1.462894110096</v>
+        <v>0.501935431991</v>
       </c>
       <c r="S4">
-        <v>0.001048201489594923</v>
+        <v>0.0005649912544588448</v>
       </c>
       <c r="T4">
-        <v>0.001048201489594923</v>
+        <v>0.0005649912544588446</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>24.758105</v>
       </c>
       <c r="I5">
-        <v>0.9815546764233375</v>
+        <v>0.9868456480383168</v>
       </c>
       <c r="J5">
-        <v>0.9815546764233374</v>
+        <v>0.9868456480383166</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.920975666666667</v>
+        <v>3.281109666666667</v>
       </c>
       <c r="N5">
-        <v>29.762927</v>
+        <v>9.843329000000001</v>
       </c>
       <c r="O5">
-        <v>0.5379109985456686</v>
+        <v>0.2779739143628921</v>
       </c>
       <c r="P5">
-        <v>0.5379109985456686</v>
+        <v>0.2779739143628921</v>
       </c>
       <c r="Q5">
-        <v>81.87485241925945</v>
+        <v>27.07801921461612</v>
       </c>
       <c r="R5">
-        <v>736.873671773335</v>
+        <v>243.702172931545</v>
       </c>
       <c r="S5">
-        <v>0.5279890561220481</v>
+        <v>0.2743173476571958</v>
       </c>
       <c r="T5">
-        <v>0.5279890561220481</v>
+        <v>0.2743173476571958</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>24.758105</v>
       </c>
       <c r="I6">
-        <v>0.9815546764233375</v>
+        <v>0.9868456480383168</v>
       </c>
       <c r="J6">
-        <v>0.9815546764233374</v>
+        <v>0.9868456480383166</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +800,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.153936333333333</v>
+        <v>6.153936333333334</v>
       </c>
       <c r="N6">
         <v>18.461809</v>
       </c>
       <c r="O6">
-        <v>0.3336637594195426</v>
+        <v>0.5213583040808726</v>
       </c>
       <c r="P6">
-        <v>0.3336637594195426</v>
+        <v>0.5213583040808725</v>
       </c>
       <c r="Q6">
-        <v>50.78660063466056</v>
+        <v>50.78660063466057</v>
       </c>
       <c r="R6">
-        <v>457.079405711945</v>
+        <v>457.0794057119451</v>
       </c>
       <c r="S6">
-        <v>0.3275092234112435</v>
+        <v>0.5145001734508465</v>
       </c>
       <c r="T6">
-        <v>0.3275092234112434</v>
+        <v>0.5145001734508463</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>24.758105</v>
       </c>
       <c r="I7">
-        <v>0.9815546764233375</v>
+        <v>0.9868456480383168</v>
       </c>
       <c r="J7">
-        <v>0.9815546764233374</v>
+        <v>0.9868456480383166</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>7.105843</v>
       </c>
       <c r="O7">
-        <v>0.1284252420347888</v>
+        <v>0.2006677815562353</v>
       </c>
       <c r="P7">
-        <v>0.1284252420347888</v>
+        <v>0.2006677815562353</v>
       </c>
       <c r="Q7">
         <v>19.54746745639056</v>
@@ -880,10 +880,10 @@
         <v>175.927207107515</v>
       </c>
       <c r="S7">
-        <v>0.1260563968900459</v>
+        <v>0.1980281269302744</v>
       </c>
       <c r="T7">
-        <v>0.1260563968900459</v>
+        <v>0.1980281269302744</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>0.259381</v>
       </c>
       <c r="I8">
-        <v>0.01028336512529378</v>
+        <v>0.0103387965691973</v>
       </c>
       <c r="J8">
-        <v>0.01028336512529378</v>
+        <v>0.0103387965691973</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.920975666666667</v>
+        <v>3.281109666666667</v>
       </c>
       <c r="N8">
-        <v>29.762927</v>
+        <v>9.843329000000001</v>
       </c>
       <c r="O8">
-        <v>0.5379109985456686</v>
+        <v>0.2779739143628921</v>
       </c>
       <c r="P8">
-        <v>0.5379109985456686</v>
+        <v>0.2779739143628921</v>
       </c>
       <c r="Q8">
-        <v>0.8577708631318888</v>
+        <v>0.2836858354832222</v>
       </c>
       <c r="R8">
-        <v>7.719937768186999</v>
+        <v>2.553172519349</v>
       </c>
       <c r="S8">
-        <v>0.005531535202956483</v>
+        <v>0.002873915752141414</v>
       </c>
       <c r="T8">
-        <v>0.005531535202956483</v>
+        <v>0.002873915752141414</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>0.259381</v>
       </c>
       <c r="I9">
-        <v>0.01028336512529378</v>
+        <v>0.0103387965691973</v>
       </c>
       <c r="J9">
-        <v>0.01028336512529378</v>
+        <v>0.0103387965691973</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -986,28 +986,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.153936333333333</v>
+        <v>6.153936333333334</v>
       </c>
       <c r="N9">
         <v>18.461809</v>
       </c>
       <c r="O9">
-        <v>0.3336637594195426</v>
+        <v>0.5213583040808726</v>
       </c>
       <c r="P9">
-        <v>0.3336637594195426</v>
+        <v>0.5213583040808725</v>
       </c>
       <c r="Q9">
         <v>0.5320713866921111</v>
       </c>
       <c r="R9">
-        <v>4.788642480228999</v>
+        <v>4.788642480229</v>
       </c>
       <c r="S9">
-        <v>0.00343118626718934</v>
+        <v>0.00539021744555385</v>
       </c>
       <c r="T9">
-        <v>0.00343118626718934</v>
+        <v>0.005390217445553848</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>0.259381</v>
       </c>
       <c r="I10">
-        <v>0.01028336512529378</v>
+        <v>0.0103387965691973</v>
       </c>
       <c r="J10">
-        <v>0.01028336512529378</v>
+        <v>0.0103387965691973</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>7.105843</v>
       </c>
       <c r="O10">
-        <v>0.1284252420347888</v>
+        <v>0.2006677815562353</v>
       </c>
       <c r="P10">
-        <v>0.1284252420347888</v>
+        <v>0.2006677815562353</v>
       </c>
       <c r="Q10">
         <v>0.2047911847981111</v>
@@ -1066,10 +1066,10 @@
         <v>1.843120663183</v>
       </c>
       <c r="S10">
-        <v>0.00132064365514796</v>
+        <v>0.00207466337150204</v>
       </c>
       <c r="T10">
-        <v>0.00132064365514796</v>
+        <v>0.002074663371502039</v>
       </c>
     </row>
   </sheetData>
